--- a/docs/tpch_22_6n.xlsx
+++ b/docs/tpch_22_6n.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="uppaal_df__tpch_22_6n" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="20">
   <si>
     <t>tpch_22_6n_uppaal_C16_T32_rec60000000_df</t>
   </si>
@@ -90,12 +90,6 @@
   </si>
   <si>
     <t>memory_opt</t>
-  </si>
-  <si>
-    <t>max_memory_no_opt</t>
-  </si>
-  <si>
-    <t>max_memory_opt</t>
   </si>
 </sst>
 </file>
@@ -179,7 +173,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1295">
+  <dxfs count="1127">
     <dxf>
       <fill>
         <patternFill>
@@ -6802,1495 +6796,151 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF727272"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF262626"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF989898"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF989898"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF989898"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF989898"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF727272"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF262626"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10636,8 +9286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J1:L1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11666,925 +10316,925 @@
     <mergeCell ref="A21:I21"/>
   </mergeCells>
   <conditionalFormatting sqref="A23:B38">
-    <cfRule type="cellIs" dxfId="1294" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="1126" priority="351" operator="equal">
       <formula>"ERROR/TIMEOUT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1293" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="1125" priority="352" operator="equal">
       <formula>"unsat"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1292" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="1124" priority="353" operator="equal">
       <formula>"sat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B18">
-    <cfRule type="cellIs" dxfId="1291" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1123" priority="25" operator="equal">
       <formula>"ERROR/TIMEOUT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1290" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1122" priority="26" operator="equal">
       <formula>"unsat"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1289" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1121" priority="27" operator="equal">
       <formula>"sat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="1288" priority="96">
+    <cfRule type="expression" dxfId="1120" priority="120">
       <formula>F10&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1287" priority="97">
+    <cfRule type="expression" dxfId="1119" priority="121">
       <formula>AND(-3&lt;F10,F10&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1286" priority="98">
+    <cfRule type="expression" dxfId="1118" priority="122">
       <formula>AND(-2&lt;F10,F10&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1285" priority="99">
+    <cfRule type="expression" dxfId="1117" priority="123">
       <formula>AND(-1.5&lt;F10,F10&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="1284" priority="100">
+    <cfRule type="expression" dxfId="1116" priority="124">
       <formula>F11&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1283" priority="101">
+    <cfRule type="expression" dxfId="1115" priority="125">
       <formula>AND(-3&lt;F11,F11&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1282" priority="102">
+    <cfRule type="expression" dxfId="1114" priority="126">
       <formula>AND(-2&lt;F11,F11&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1281" priority="103">
+    <cfRule type="expression" dxfId="1113" priority="127">
       <formula>AND(-1.5&lt;F11,F11&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="1280" priority="104">
+    <cfRule type="expression" dxfId="1112" priority="128">
       <formula>F12&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1279" priority="105">
+    <cfRule type="expression" dxfId="1111" priority="129">
       <formula>AND(-3&lt;F12,F12&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1278" priority="106">
+    <cfRule type="expression" dxfId="1110" priority="130">
       <formula>AND(-2&lt;F12,F12&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1277" priority="107">
+    <cfRule type="expression" dxfId="1109" priority="131">
       <formula>AND(-1.5&lt;F12,F12&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="1276" priority="108">
+    <cfRule type="expression" dxfId="1108" priority="132">
       <formula>F13&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1275" priority="109">
+    <cfRule type="expression" dxfId="1107" priority="133">
       <formula>AND(-3&lt;F13,F13&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1274" priority="110">
+    <cfRule type="expression" dxfId="1106" priority="134">
       <formula>AND(-2&lt;F13,F13&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1273" priority="111">
+    <cfRule type="expression" dxfId="1105" priority="135">
       <formula>AND(-1.5&lt;F13,F13&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="1272" priority="112">
+    <cfRule type="expression" dxfId="1104" priority="136">
       <formula>F14&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1271" priority="113">
+    <cfRule type="expression" dxfId="1103" priority="137">
       <formula>AND(-3&lt;F14,F14&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1270" priority="114">
+    <cfRule type="expression" dxfId="1102" priority="138">
       <formula>AND(-2&lt;F14,F14&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1269" priority="115">
+    <cfRule type="expression" dxfId="1101" priority="139">
       <formula>AND(-1.5&lt;F14,F14&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="1268" priority="116">
+    <cfRule type="expression" dxfId="1100" priority="140">
       <formula>F15&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1267" priority="117">
+    <cfRule type="expression" dxfId="1099" priority="141">
       <formula>AND(-3&lt;F15,F15&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1266" priority="118">
+    <cfRule type="expression" dxfId="1098" priority="142">
       <formula>AND(-2&lt;F15,F15&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1265" priority="119">
+    <cfRule type="expression" dxfId="1097" priority="143">
       <formula>AND(-1.5&lt;F15,F15&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="1264" priority="120">
+    <cfRule type="expression" dxfId="1096" priority="144">
       <formula>F16&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1263" priority="121">
+    <cfRule type="expression" dxfId="1095" priority="145">
       <formula>AND(-3&lt;F16,F16&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1262" priority="122">
+    <cfRule type="expression" dxfId="1094" priority="146">
       <formula>AND(-2&lt;F16,F16&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1261" priority="123">
+    <cfRule type="expression" dxfId="1093" priority="147">
       <formula>AND(-1.5&lt;F16,F16&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="1260" priority="124">
+    <cfRule type="expression" dxfId="1092" priority="148">
       <formula>F17&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1259" priority="125">
+    <cfRule type="expression" dxfId="1091" priority="149">
       <formula>AND(-3&lt;F17,F17&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1258" priority="126">
+    <cfRule type="expression" dxfId="1090" priority="150">
       <formula>AND(-2&lt;F17,F17&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1257" priority="127">
+    <cfRule type="expression" dxfId="1089" priority="151">
       <formula>AND(-1.5&lt;F17,F17&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="1256" priority="128">
+    <cfRule type="expression" dxfId="1088" priority="152">
       <formula>F18&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1255" priority="129">
+    <cfRule type="expression" dxfId="1087" priority="153">
       <formula>AND(-3&lt;F18,F18&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1254" priority="130">
+    <cfRule type="expression" dxfId="1086" priority="154">
       <formula>AND(-2&lt;F18,F18&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1253" priority="131">
+    <cfRule type="expression" dxfId="1085" priority="155">
       <formula>AND(-1.5&lt;F18,F18&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="1252" priority="394">
+    <cfRule type="expression" dxfId="1084" priority="418">
       <formula>F23&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1251" priority="395">
+    <cfRule type="expression" dxfId="1083" priority="419">
       <formula>AND(-3&lt;F23,F23&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1250" priority="396">
+    <cfRule type="expression" dxfId="1082" priority="420">
       <formula>AND(-2&lt;F23,F23&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1249" priority="397">
+    <cfRule type="expression" dxfId="1081" priority="421">
       <formula>AND(-1.5&lt;F23,F23&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="1248" priority="398">
+    <cfRule type="expression" dxfId="1080" priority="422">
       <formula>F24&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1247" priority="399">
+    <cfRule type="expression" dxfId="1079" priority="423">
       <formula>AND(-3&lt;F24,F24&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1246" priority="400">
+    <cfRule type="expression" dxfId="1078" priority="424">
       <formula>AND(-2&lt;F24,F24&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1245" priority="401">
+    <cfRule type="expression" dxfId="1077" priority="425">
       <formula>AND(-1.5&lt;F24,F24&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="1244" priority="402">
+    <cfRule type="expression" dxfId="1076" priority="426">
       <formula>F25&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1243" priority="403">
+    <cfRule type="expression" dxfId="1075" priority="427">
       <formula>AND(-3&lt;F25,F25&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1242" priority="404">
+    <cfRule type="expression" dxfId="1074" priority="428">
       <formula>AND(-2&lt;F25,F25&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1241" priority="405">
+    <cfRule type="expression" dxfId="1073" priority="429">
       <formula>AND(-1.5&lt;F25,F25&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="1240" priority="406">
+    <cfRule type="expression" dxfId="1072" priority="430">
       <formula>F26&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1239" priority="407">
+    <cfRule type="expression" dxfId="1071" priority="431">
       <formula>AND(-3&lt;F26,F26&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1238" priority="408">
+    <cfRule type="expression" dxfId="1070" priority="432">
       <formula>AND(-2&lt;F26,F26&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1237" priority="409">
+    <cfRule type="expression" dxfId="1069" priority="433">
       <formula>AND(-1.5&lt;F26,F26&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="1236" priority="410">
+    <cfRule type="expression" dxfId="1068" priority="434">
       <formula>F27&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1235" priority="411">
+    <cfRule type="expression" dxfId="1067" priority="435">
       <formula>AND(-3&lt;F27,F27&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1234" priority="412">
+    <cfRule type="expression" dxfId="1066" priority="436">
       <formula>AND(-2&lt;F27,F27&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1233" priority="413">
+    <cfRule type="expression" dxfId="1065" priority="437">
       <formula>AND(-1.5&lt;F27,F27&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="1232" priority="414">
+    <cfRule type="expression" dxfId="1064" priority="438">
       <formula>F28&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1231" priority="415">
+    <cfRule type="expression" dxfId="1063" priority="439">
       <formula>AND(-3&lt;F28,F28&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1230" priority="416">
+    <cfRule type="expression" dxfId="1062" priority="440">
       <formula>AND(-2&lt;F28,F28&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1229" priority="417">
+    <cfRule type="expression" dxfId="1061" priority="441">
       <formula>AND(-1.5&lt;F28,F28&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="1228" priority="418">
+    <cfRule type="expression" dxfId="1060" priority="442">
       <formula>F29&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1227" priority="419">
+    <cfRule type="expression" dxfId="1059" priority="443">
       <formula>AND(-3&lt;F29,F29&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1226" priority="420">
+    <cfRule type="expression" dxfId="1058" priority="444">
       <formula>AND(-2&lt;F29,F29&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1225" priority="421">
+    <cfRule type="expression" dxfId="1057" priority="445">
       <formula>AND(-1.5&lt;F29,F29&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="1224" priority="68">
+    <cfRule type="expression" dxfId="1056" priority="92">
       <formula>F3&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1223" priority="69">
+    <cfRule type="expression" dxfId="1055" priority="93">
       <formula>AND(-3&lt;F3,F3&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1222" priority="70">
+    <cfRule type="expression" dxfId="1054" priority="94">
       <formula>AND(-2&lt;F3,F3&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1221" priority="71">
+    <cfRule type="expression" dxfId="1053" priority="95">
       <formula>AND(-1.5&lt;F3,F3&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="1220" priority="422">
+    <cfRule type="expression" dxfId="1052" priority="446">
       <formula>F30&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1219" priority="423">
+    <cfRule type="expression" dxfId="1051" priority="447">
       <formula>AND(-3&lt;F30,F30&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1218" priority="424">
+    <cfRule type="expression" dxfId="1050" priority="448">
       <formula>AND(-2&lt;F30,F30&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1217" priority="425">
+    <cfRule type="expression" dxfId="1049" priority="449">
       <formula>AND(-1.5&lt;F30,F30&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="1216" priority="426">
+    <cfRule type="expression" dxfId="1048" priority="450">
       <formula>F31&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1215" priority="427">
+    <cfRule type="expression" dxfId="1047" priority="451">
       <formula>AND(-3&lt;F31,F31&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1214" priority="428">
+    <cfRule type="expression" dxfId="1046" priority="452">
       <formula>AND(-2&lt;F31,F31&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1213" priority="429">
+    <cfRule type="expression" dxfId="1045" priority="453">
       <formula>AND(-1.5&lt;F31,F31&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="1212" priority="430">
+    <cfRule type="expression" dxfId="1044" priority="454">
       <formula>F32&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1211" priority="431">
+    <cfRule type="expression" dxfId="1043" priority="455">
       <formula>AND(-3&lt;F32,F32&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1210" priority="432">
+    <cfRule type="expression" dxfId="1042" priority="456">
       <formula>AND(-2&lt;F32,F32&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1209" priority="433">
+    <cfRule type="expression" dxfId="1041" priority="457">
       <formula>AND(-1.5&lt;F32,F32&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="1208" priority="434">
+    <cfRule type="expression" dxfId="1040" priority="458">
       <formula>F33&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1207" priority="435">
+    <cfRule type="expression" dxfId="1039" priority="459">
       <formula>AND(-3&lt;F33,F33&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1206" priority="436">
+    <cfRule type="expression" dxfId="1038" priority="460">
       <formula>AND(-2&lt;F33,F33&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1205" priority="437">
+    <cfRule type="expression" dxfId="1037" priority="461">
       <formula>AND(-1.5&lt;F33,F33&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="1204" priority="438">
+    <cfRule type="expression" dxfId="1036" priority="462">
       <formula>F34&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1203" priority="439">
+    <cfRule type="expression" dxfId="1035" priority="463">
       <formula>AND(-3&lt;F34,F34&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1202" priority="440">
+    <cfRule type="expression" dxfId="1034" priority="464">
       <formula>AND(-2&lt;F34,F34&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1201" priority="441">
+    <cfRule type="expression" dxfId="1033" priority="465">
       <formula>AND(-1.5&lt;F34,F34&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="1200" priority="442">
+    <cfRule type="expression" dxfId="1032" priority="466">
       <formula>F35&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1199" priority="443">
+    <cfRule type="expression" dxfId="1031" priority="467">
       <formula>AND(-3&lt;F35,F35&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1198" priority="444">
+    <cfRule type="expression" dxfId="1030" priority="468">
       <formula>AND(-2&lt;F35,F35&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1197" priority="445">
+    <cfRule type="expression" dxfId="1029" priority="469">
       <formula>AND(-1.5&lt;F35,F35&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="1196" priority="446">
+    <cfRule type="expression" dxfId="1028" priority="470">
       <formula>F36&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1195" priority="447">
+    <cfRule type="expression" dxfId="1027" priority="471">
       <formula>AND(-3&lt;F36,F36&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1194" priority="448">
+    <cfRule type="expression" dxfId="1026" priority="472">
       <formula>AND(-2&lt;F36,F36&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1193" priority="449">
+    <cfRule type="expression" dxfId="1025" priority="473">
       <formula>AND(-1.5&lt;F36,F36&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="1192" priority="450">
+    <cfRule type="expression" dxfId="1024" priority="474">
       <formula>F37&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1191" priority="451">
+    <cfRule type="expression" dxfId="1023" priority="475">
       <formula>AND(-3&lt;F37,F37&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1190" priority="452">
+    <cfRule type="expression" dxfId="1022" priority="476">
       <formula>AND(-2&lt;F37,F37&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1189" priority="453">
+    <cfRule type="expression" dxfId="1021" priority="477">
       <formula>AND(-1.5&lt;F37,F37&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="1188" priority="454">
+    <cfRule type="expression" dxfId="1020" priority="478">
       <formula>F38&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1187" priority="455">
+    <cfRule type="expression" dxfId="1019" priority="479">
       <formula>AND(-3&lt;F38,F38&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1186" priority="456">
+    <cfRule type="expression" dxfId="1018" priority="480">
       <formula>AND(-2&lt;F38,F38&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1185" priority="457">
+    <cfRule type="expression" dxfId="1017" priority="481">
       <formula>AND(-1.5&lt;F38,F38&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="1184" priority="72">
+    <cfRule type="expression" dxfId="1016" priority="96">
       <formula>F4&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1183" priority="73">
+    <cfRule type="expression" dxfId="1015" priority="97">
       <formula>AND(-3&lt;F4,F4&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1182" priority="74">
+    <cfRule type="expression" dxfId="1014" priority="98">
       <formula>AND(-2&lt;F4,F4&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1181" priority="75">
+    <cfRule type="expression" dxfId="1013" priority="99">
       <formula>AND(-1.5&lt;F4,F4&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="1180" priority="76">
+    <cfRule type="expression" dxfId="1012" priority="100">
       <formula>F5&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1179" priority="77">
+    <cfRule type="expression" dxfId="1011" priority="101">
       <formula>AND(-3&lt;F5,F5&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1178" priority="78">
+    <cfRule type="expression" dxfId="1010" priority="102">
       <formula>AND(-2&lt;F5,F5&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1177" priority="79">
+    <cfRule type="expression" dxfId="1009" priority="103">
       <formula>AND(-1.5&lt;F5,F5&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="1176" priority="80">
+    <cfRule type="expression" dxfId="1008" priority="104">
       <formula>F6&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1175" priority="81">
+    <cfRule type="expression" dxfId="1007" priority="105">
       <formula>AND(-3&lt;F6,F6&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1174" priority="82">
+    <cfRule type="expression" dxfId="1006" priority="106">
       <formula>AND(-2&lt;F6,F6&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1173" priority="83">
+    <cfRule type="expression" dxfId="1005" priority="107">
       <formula>AND(-1.5&lt;F6,F6&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="1172" priority="84">
+    <cfRule type="expression" dxfId="1004" priority="108">
       <formula>F7&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1171" priority="85">
+    <cfRule type="expression" dxfId="1003" priority="109">
       <formula>AND(-3&lt;F7,F7&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1170" priority="86">
+    <cfRule type="expression" dxfId="1002" priority="110">
       <formula>AND(-2&lt;F7,F7&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1169" priority="87">
+    <cfRule type="expression" dxfId="1001" priority="111">
       <formula>AND(-1.5&lt;F7,F7&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="1168" priority="88">
+    <cfRule type="expression" dxfId="1000" priority="112">
       <formula>F8&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1167" priority="89">
+    <cfRule type="expression" dxfId="999" priority="113">
       <formula>AND(-3&lt;F8,F8&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1166" priority="90">
+    <cfRule type="expression" dxfId="998" priority="114">
       <formula>AND(-2&lt;F8,F8&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1165" priority="91">
+    <cfRule type="expression" dxfId="997" priority="115">
       <formula>AND(-1.5&lt;F8,F8&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="1164" priority="92">
+    <cfRule type="expression" dxfId="996" priority="116">
       <formula>F9&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1163" priority="93">
+    <cfRule type="expression" dxfId="995" priority="117">
       <formula>AND(-3&lt;F9,F9&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1162" priority="94">
+    <cfRule type="expression" dxfId="994" priority="118">
       <formula>AND(-2&lt;F9,F9&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1161" priority="95">
+    <cfRule type="expression" dxfId="993" priority="119">
       <formula>AND(-1.5&lt;F9,F9&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="1160" priority="32">
+    <cfRule type="expression" dxfId="992" priority="56">
       <formula>F10&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1159" priority="33">
+    <cfRule type="expression" dxfId="991" priority="57">
       <formula>AND(3&gt;F10, F10&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1158" priority="34">
+    <cfRule type="expression" dxfId="990" priority="58">
       <formula>AND(2&gt;F10, F10&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1157" priority="35">
+    <cfRule type="expression" dxfId="989" priority="59">
       <formula>AND(1.5&gt;F10, F10&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="1156" priority="36">
+    <cfRule type="expression" dxfId="988" priority="60">
       <formula>F11&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1155" priority="37">
+    <cfRule type="expression" dxfId="987" priority="61">
       <formula>AND(3&gt;F11, F11&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1154" priority="38">
+    <cfRule type="expression" dxfId="986" priority="62">
       <formula>AND(2&gt;F11, F11&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1153" priority="39">
+    <cfRule type="expression" dxfId="985" priority="63">
       <formula>AND(1.5&gt;F11, F11&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="1152" priority="40">
+    <cfRule type="expression" dxfId="984" priority="64">
       <formula>F12&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1151" priority="41">
+    <cfRule type="expression" dxfId="983" priority="65">
       <formula>AND(3&gt;F12, F12&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1150" priority="42">
+    <cfRule type="expression" dxfId="982" priority="66">
       <formula>AND(2&gt;F12, F12&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1149" priority="43">
+    <cfRule type="expression" dxfId="981" priority="67">
       <formula>AND(1.5&gt;F12, F12&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="1148" priority="44">
+    <cfRule type="expression" dxfId="980" priority="68">
       <formula>F13&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1147" priority="45">
+    <cfRule type="expression" dxfId="979" priority="69">
       <formula>AND(3&gt;F13, F13&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1146" priority="46">
+    <cfRule type="expression" dxfId="978" priority="70">
       <formula>AND(2&gt;F13, F13&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1145" priority="47">
+    <cfRule type="expression" dxfId="977" priority="71">
       <formula>AND(1.5&gt;F13, F13&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="1144" priority="48">
+    <cfRule type="expression" dxfId="976" priority="72">
       <formula>F14&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1143" priority="49">
+    <cfRule type="expression" dxfId="975" priority="73">
       <formula>AND(3&gt;F14, F14&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1142" priority="50">
+    <cfRule type="expression" dxfId="974" priority="74">
       <formula>AND(2&gt;F14, F14&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1141" priority="51">
+    <cfRule type="expression" dxfId="973" priority="75">
       <formula>AND(1.5&gt;F14, F14&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="1140" priority="52">
+    <cfRule type="expression" dxfId="972" priority="76">
       <formula>F15&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1139" priority="53">
+    <cfRule type="expression" dxfId="971" priority="77">
       <formula>AND(3&gt;F15, F15&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1138" priority="54">
+    <cfRule type="expression" dxfId="970" priority="78">
       <formula>AND(2&gt;F15, F15&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1137" priority="55">
+    <cfRule type="expression" dxfId="969" priority="79">
       <formula>AND(1.5&gt;F15, F15&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="1136" priority="56">
+    <cfRule type="expression" dxfId="968" priority="80">
       <formula>F16&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1135" priority="57">
+    <cfRule type="expression" dxfId="967" priority="81">
       <formula>AND(3&gt;F16, F16&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1134" priority="58">
+    <cfRule type="expression" dxfId="966" priority="82">
       <formula>AND(2&gt;F16, F16&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1133" priority="59">
+    <cfRule type="expression" dxfId="965" priority="83">
       <formula>AND(1.5&gt;F16, F16&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="1132" priority="60">
+    <cfRule type="expression" dxfId="964" priority="84">
       <formula>F17&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1131" priority="61">
+    <cfRule type="expression" dxfId="963" priority="85">
       <formula>AND(3&gt;F17, F17&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1130" priority="62">
+    <cfRule type="expression" dxfId="962" priority="86">
       <formula>AND(2&gt;F17, F17&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1129" priority="63">
+    <cfRule type="expression" dxfId="961" priority="87">
       <formula>AND(1.5&gt;F17, F17&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="1128" priority="64">
+    <cfRule type="expression" dxfId="960" priority="88">
       <formula>F18&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1127" priority="65">
+    <cfRule type="expression" dxfId="959" priority="89">
       <formula>AND(3&gt;F18, F18&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1126" priority="66">
+    <cfRule type="expression" dxfId="958" priority="90">
       <formula>AND(2&gt;F18, F18&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1125" priority="67">
+    <cfRule type="expression" dxfId="957" priority="91">
       <formula>AND(1.5&gt;F18, F18&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="1124" priority="330">
+    <cfRule type="expression" dxfId="956" priority="354">
       <formula>F23&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1123" priority="331">
+    <cfRule type="expression" dxfId="955" priority="355">
       <formula>AND(3&gt;F23, F23&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1122" priority="332">
+    <cfRule type="expression" dxfId="954" priority="356">
       <formula>AND(2&gt;F23, F23&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1121" priority="333">
+    <cfRule type="expression" dxfId="953" priority="357">
       <formula>AND(1.5&gt;F23, F23&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="1120" priority="334">
+    <cfRule type="expression" dxfId="952" priority="358">
       <formula>F24&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1119" priority="335">
+    <cfRule type="expression" dxfId="951" priority="359">
       <formula>AND(3&gt;F24, F24&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1118" priority="336">
+    <cfRule type="expression" dxfId="950" priority="360">
       <formula>AND(2&gt;F24, F24&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1117" priority="337">
+    <cfRule type="expression" dxfId="949" priority="361">
       <formula>AND(1.5&gt;F24, F24&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="1116" priority="338">
+    <cfRule type="expression" dxfId="948" priority="362">
       <formula>F25&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1115" priority="339">
+    <cfRule type="expression" dxfId="947" priority="363">
       <formula>AND(3&gt;F25, F25&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1114" priority="340">
+    <cfRule type="expression" dxfId="946" priority="364">
       <formula>AND(2&gt;F25, F25&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1113" priority="341">
+    <cfRule type="expression" dxfId="945" priority="365">
       <formula>AND(1.5&gt;F25, F25&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="1112" priority="342">
+    <cfRule type="expression" dxfId="944" priority="366">
       <formula>F26&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1111" priority="343">
+    <cfRule type="expression" dxfId="943" priority="367">
       <formula>AND(3&gt;F26, F26&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1110" priority="344">
+    <cfRule type="expression" dxfId="942" priority="368">
       <formula>AND(2&gt;F26, F26&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1109" priority="345">
+    <cfRule type="expression" dxfId="941" priority="369">
       <formula>AND(1.5&gt;F26, F26&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="1108" priority="346">
+    <cfRule type="expression" dxfId="940" priority="370">
       <formula>F27&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1107" priority="347">
+    <cfRule type="expression" dxfId="939" priority="371">
       <formula>AND(3&gt;F27, F27&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1106" priority="348">
+    <cfRule type="expression" dxfId="938" priority="372">
       <formula>AND(2&gt;F27, F27&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1105" priority="349">
+    <cfRule type="expression" dxfId="937" priority="373">
       <formula>AND(1.5&gt;F27, F27&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="1104" priority="350">
+    <cfRule type="expression" dxfId="936" priority="374">
       <formula>F28&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1103" priority="351">
+    <cfRule type="expression" dxfId="935" priority="375">
       <formula>AND(3&gt;F28, F28&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1102" priority="352">
+    <cfRule type="expression" dxfId="934" priority="376">
       <formula>AND(2&gt;F28, F28&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1101" priority="353">
+    <cfRule type="expression" dxfId="933" priority="377">
       <formula>AND(1.5&gt;F28, F28&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="1100" priority="354">
+    <cfRule type="expression" dxfId="932" priority="378">
       <formula>F29&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1099" priority="355">
+    <cfRule type="expression" dxfId="931" priority="379">
       <formula>AND(3&gt;F29, F29&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1098" priority="356">
+    <cfRule type="expression" dxfId="930" priority="380">
       <formula>AND(2&gt;F29, F29&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1097" priority="357">
+    <cfRule type="expression" dxfId="929" priority="381">
       <formula>AND(1.5&gt;F29, F29&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="1096" priority="4">
+    <cfRule type="expression" dxfId="928" priority="28">
       <formula>F3&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1095" priority="5">
+    <cfRule type="expression" dxfId="927" priority="29">
       <formula>AND(3&gt;F3, F3&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1094" priority="6">
+    <cfRule type="expression" dxfId="926" priority="30">
       <formula>AND(2&gt;F3, F3&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1093" priority="7">
+    <cfRule type="expression" dxfId="925" priority="31">
       <formula>AND(1.5&gt;F3, F3&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="1092" priority="358">
+    <cfRule type="expression" dxfId="924" priority="382">
       <formula>F30&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1091" priority="359">
+    <cfRule type="expression" dxfId="923" priority="383">
       <formula>AND(3&gt;F30, F30&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1090" priority="360">
+    <cfRule type="expression" dxfId="922" priority="384">
       <formula>AND(2&gt;F30, F30&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1089" priority="361">
+    <cfRule type="expression" dxfId="921" priority="385">
       <formula>AND(1.5&gt;F30, F30&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="1088" priority="362">
+    <cfRule type="expression" dxfId="920" priority="386">
       <formula>F31&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1087" priority="363">
+    <cfRule type="expression" dxfId="919" priority="387">
       <formula>AND(3&gt;F31, F31&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1086" priority="364">
+    <cfRule type="expression" dxfId="918" priority="388">
       <formula>AND(2&gt;F31, F31&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1085" priority="365">
+    <cfRule type="expression" dxfId="917" priority="389">
       <formula>AND(1.5&gt;F31, F31&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="1084" priority="366">
+    <cfRule type="expression" dxfId="916" priority="390">
       <formula>F32&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1083" priority="367">
+    <cfRule type="expression" dxfId="915" priority="391">
       <formula>AND(3&gt;F32, F32&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1082" priority="368">
+    <cfRule type="expression" dxfId="914" priority="392">
       <formula>AND(2&gt;F32, F32&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1081" priority="369">
+    <cfRule type="expression" dxfId="913" priority="393">
       <formula>AND(1.5&gt;F32, F32&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="1080" priority="370">
+    <cfRule type="expression" dxfId="912" priority="394">
       <formula>F33&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1079" priority="371">
+    <cfRule type="expression" dxfId="911" priority="395">
       <formula>AND(3&gt;F33, F33&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1078" priority="372">
+    <cfRule type="expression" dxfId="910" priority="396">
       <formula>AND(2&gt;F33, F33&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1077" priority="373">
+    <cfRule type="expression" dxfId="909" priority="397">
       <formula>AND(1.5&gt;F33, F33&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="1076" priority="374">
+    <cfRule type="expression" dxfId="908" priority="398">
       <formula>F34&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1075" priority="375">
+    <cfRule type="expression" dxfId="907" priority="399">
       <formula>AND(3&gt;F34, F34&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1074" priority="376">
+    <cfRule type="expression" dxfId="906" priority="400">
       <formula>AND(2&gt;F34, F34&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1073" priority="377">
+    <cfRule type="expression" dxfId="905" priority="401">
       <formula>AND(1.5&gt;F34, F34&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="1072" priority="378">
+    <cfRule type="expression" dxfId="904" priority="402">
       <formula>F35&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1071" priority="379">
+    <cfRule type="expression" dxfId="903" priority="403">
       <formula>AND(3&gt;F35, F35&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1070" priority="380">
+    <cfRule type="expression" dxfId="902" priority="404">
       <formula>AND(2&gt;F35, F35&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1069" priority="381">
+    <cfRule type="expression" dxfId="901" priority="405">
       <formula>AND(1.5&gt;F35, F35&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="1068" priority="382">
+    <cfRule type="expression" dxfId="900" priority="406">
       <formula>F36&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1067" priority="383">
+    <cfRule type="expression" dxfId="899" priority="407">
       <formula>AND(3&gt;F36, F36&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1066" priority="384">
+    <cfRule type="expression" dxfId="898" priority="408">
       <formula>AND(2&gt;F36, F36&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1065" priority="385">
+    <cfRule type="expression" dxfId="897" priority="409">
       <formula>AND(1.5&gt;F36, F36&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="1064" priority="386">
+    <cfRule type="expression" dxfId="896" priority="410">
       <formula>F37&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1063" priority="387">
+    <cfRule type="expression" dxfId="895" priority="411">
       <formula>AND(3&gt;F37, F37&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1062" priority="388">
+    <cfRule type="expression" dxfId="894" priority="412">
       <formula>AND(2&gt;F37, F37&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1061" priority="389">
+    <cfRule type="expression" dxfId="893" priority="413">
       <formula>AND(1.5&gt;F37, F37&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="1060" priority="390">
+    <cfRule type="expression" dxfId="892" priority="414">
       <formula>F38&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1059" priority="391">
+    <cfRule type="expression" dxfId="891" priority="415">
       <formula>AND(3&gt;F38, F38&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1058" priority="392">
+    <cfRule type="expression" dxfId="890" priority="416">
       <formula>AND(2&gt;F38, F38&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1057" priority="393">
+    <cfRule type="expression" dxfId="889" priority="417">
       <formula>AND(1.5&gt;F38, F38&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="1056" priority="8">
+    <cfRule type="expression" dxfId="888" priority="32">
       <formula>F4&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1055" priority="9">
+    <cfRule type="expression" dxfId="887" priority="33">
       <formula>AND(3&gt;F4, F4&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1054" priority="10">
+    <cfRule type="expression" dxfId="886" priority="34">
       <formula>AND(2&gt;F4, F4&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1053" priority="11">
+    <cfRule type="expression" dxfId="885" priority="35">
       <formula>AND(1.5&gt;F4, F4&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="1052" priority="12">
+    <cfRule type="expression" dxfId="884" priority="36">
       <formula>F5&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1051" priority="13">
+    <cfRule type="expression" dxfId="883" priority="37">
       <formula>AND(3&gt;F5, F5&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1050" priority="14">
+    <cfRule type="expression" dxfId="882" priority="38">
       <formula>AND(2&gt;F5, F5&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1049" priority="15">
+    <cfRule type="expression" dxfId="881" priority="39">
       <formula>AND(1.5&gt;F5, F5&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="1048" priority="16">
+    <cfRule type="expression" dxfId="880" priority="40">
       <formula>F6&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1047" priority="17">
+    <cfRule type="expression" dxfId="879" priority="41">
       <formula>AND(3&gt;F6, F6&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1046" priority="18">
+    <cfRule type="expression" dxfId="878" priority="42">
       <formula>AND(2&gt;F6, F6&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1045" priority="19">
+    <cfRule type="expression" dxfId="877" priority="43">
       <formula>AND(1.5&gt;F6, F6&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="1044" priority="20">
+    <cfRule type="expression" dxfId="876" priority="44">
       <formula>F7&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1043" priority="21">
+    <cfRule type="expression" dxfId="875" priority="45">
       <formula>AND(3&gt;F7, F7&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1042" priority="22">
+    <cfRule type="expression" dxfId="874" priority="46">
       <formula>AND(2&gt;F7, F7&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1041" priority="23">
+    <cfRule type="expression" dxfId="873" priority="47">
       <formula>AND(1.5&gt;F7, F7&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="1040" priority="24">
+    <cfRule type="expression" dxfId="872" priority="48">
       <formula>F8&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1039" priority="25">
+    <cfRule type="expression" dxfId="871" priority="49">
       <formula>AND(3&gt;F8, F8&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1038" priority="26">
+    <cfRule type="expression" dxfId="870" priority="50">
       <formula>AND(2&gt;F8, F8&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1037" priority="27">
+    <cfRule type="expression" dxfId="869" priority="51">
       <formula>AND(1.5&gt;F8, F8&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="1036" priority="28">
+    <cfRule type="expression" dxfId="868" priority="52">
       <formula>F9&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1035" priority="29">
+    <cfRule type="expression" dxfId="867" priority="53">
       <formula>AND(3&gt;F9, F9&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1034" priority="30">
+    <cfRule type="expression" dxfId="866" priority="54">
       <formula>AND(2&gt;F9, F9&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1033" priority="31">
+    <cfRule type="expression" dxfId="865" priority="55">
       <formula>AND(1.5&gt;F9, F9&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F38">
-    <cfRule type="dataBar" priority="652">
+    <cfRule type="dataBar" priority="676">
       <dataBar>
         <cfvo type="num" val="-5"/>
         <cfvo type="num" val="5"/>
@@ -12598,7 +11248,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="dataBar" priority="326">
+    <cfRule type="dataBar" priority="350">
       <dataBar>
         <cfvo type="num" val="-5"/>
         <cfvo type="num" val="5"/>
@@ -12611,712 +11261,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="1032" priority="273">
-      <formula>I10&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1031" priority="274">
-      <formula>AND(-20&gt;I10,I10&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1030" priority="275">
-      <formula>AND(0&gt;I10,I10&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="1029" priority="279">
-      <formula>I11&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1028" priority="280">
-      <formula>AND(-20&gt;I11,I11&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1027" priority="281">
-      <formula>AND(0&gt;I11,I11&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="1026" priority="285">
-      <formula>I12&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1025" priority="286">
-      <formula>AND(-20&gt;I12,I12&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1024" priority="287">
-      <formula>AND(0&gt;I12,I12&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="1023" priority="291">
-      <formula>I13&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1022" priority="292">
-      <formula>AND(-20&gt;I13,I13&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1021" priority="293">
-      <formula>AND(0&gt;I13,I13&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="1020" priority="297">
-      <formula>I14&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1019" priority="298">
-      <formula>AND(-20&gt;I14,I14&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1018" priority="299">
-      <formula>AND(0&gt;I14,I14&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="1017" priority="303">
-      <formula>I15&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1016" priority="304">
-      <formula>AND(-20&gt;I15,I15&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1015" priority="305">
-      <formula>AND(0&gt;I15,I15&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="1014" priority="309">
-      <formula>I16&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1013" priority="310">
-      <formula>AND(-20&gt;I16,I16&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1012" priority="311">
-      <formula>AND(0&gt;I16,I16&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="1011" priority="315">
-      <formula>I17&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1010" priority="316">
-      <formula>AND(-20&gt;I17,I17&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1009" priority="317">
-      <formula>AND(0&gt;I17,I17&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="1008" priority="321">
-      <formula>I18&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1007" priority="322">
-      <formula>AND(-20&gt;I18,I18&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1006" priority="323">
-      <formula>AND(0&gt;I18,I18&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="1005" priority="557">
-      <formula>I23&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1004" priority="558">
-      <formula>AND(-20&gt;I23,I23&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1003" priority="559">
-      <formula>AND(0&gt;I23,I23&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="1002" priority="563">
-      <formula>I24&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1001" priority="564">
-      <formula>AND(-20&gt;I24,I24&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1000" priority="565">
-      <formula>AND(0&gt;I24,I24&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="999" priority="569">
-      <formula>I25&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="998" priority="570">
-      <formula>AND(-20&gt;I25,I25&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="997" priority="571">
-      <formula>AND(0&gt;I25,I25&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="996" priority="575">
-      <formula>I26&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="995" priority="576">
-      <formula>AND(-20&gt;I26,I26&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="994" priority="577">
-      <formula>AND(0&gt;I26,I26&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="expression" dxfId="993" priority="581">
-      <formula>I27&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="992" priority="582">
-      <formula>AND(-20&gt;I27,I27&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="991" priority="583">
-      <formula>AND(0&gt;I27,I27&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="990" priority="587">
-      <formula>I28&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="989" priority="588">
-      <formula>AND(-20&gt;I28,I28&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="988" priority="589">
-      <formula>AND(0&gt;I28,I28&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="987" priority="593">
-      <formula>I29&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="986" priority="594">
-      <formula>AND(-20&gt;I29,I29&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="985" priority="595">
-      <formula>AND(0&gt;I29,I29&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="984" priority="231">
-      <formula>I3&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="983" priority="232">
-      <formula>AND(-20&gt;I3,I3&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="982" priority="233">
-      <formula>AND(0&gt;I3,I3&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="981" priority="599">
-      <formula>I30&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="980" priority="600">
-      <formula>AND(-20&gt;I30,I30&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="979" priority="601">
-      <formula>AND(0&gt;I30,I30&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="978" priority="605">
-      <formula>I31&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="977" priority="606">
-      <formula>AND(-20&gt;I31,I31&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="976" priority="607">
-      <formula>AND(0&gt;I31,I31&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="975" priority="611">
-      <formula>I32&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="974" priority="612">
-      <formula>AND(-20&gt;I32,I32&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="973" priority="613">
-      <formula>AND(0&gt;I32,I32&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="972" priority="617">
-      <formula>I33&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="971" priority="618">
-      <formula>AND(-20&gt;I33,I33&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="970" priority="619">
-      <formula>AND(0&gt;I33,I33&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="969" priority="623">
-      <formula>I34&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="968" priority="624">
-      <formula>AND(-20&gt;I34,I34&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="967" priority="625">
-      <formula>AND(0&gt;I34,I34&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="966" priority="629">
-      <formula>I35&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="965" priority="630">
-      <formula>AND(-20&gt;I35,I35&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="964" priority="631">
-      <formula>AND(0&gt;I35,I35&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="expression" dxfId="963" priority="635">
-      <formula>I36&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="962" priority="636">
-      <formula>AND(-20&gt;I36,I36&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="961" priority="637">
-      <formula>AND(0&gt;I36,I36&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
-    <cfRule type="expression" dxfId="960" priority="641">
-      <formula>I37&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="959" priority="642">
-      <formula>AND(-20&gt;I37,I37&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="958" priority="643">
-      <formula>AND(0&gt;I37,I37&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="expression" dxfId="957" priority="647">
-      <formula>I38&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="956" priority="648">
-      <formula>AND(-20&gt;I38,I38&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="955" priority="649">
-      <formula>AND(0&gt;I38,I38&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="954" priority="237">
-      <formula>I4&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="953" priority="238">
-      <formula>AND(-20&gt;I4,I4&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="952" priority="239">
-      <formula>AND(0&gt;I4,I4&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="951" priority="243">
-      <formula>I5&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="950" priority="244">
-      <formula>AND(-20&gt;I5,I5&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="949" priority="245">
-      <formula>AND(0&gt;I5,I5&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="948" priority="249">
-      <formula>I6&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="947" priority="250">
-      <formula>AND(-20&gt;I6,I6&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="946" priority="251">
-      <formula>AND(0&gt;I6,I6&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="945" priority="255">
-      <formula>I7&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="944" priority="256">
-      <formula>AND(-20&gt;I7,I7&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="943" priority="257">
-      <formula>AND(0&gt;I7,I7&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="942" priority="261">
-      <formula>I8&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="941" priority="262">
-      <formula>AND(-20&gt;I8,I8&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="940" priority="263">
-      <formula>AND(0&gt;I8,I8&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="939" priority="267">
-      <formula>I9&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="938" priority="268">
-      <formula>AND(-20&gt;I9,I9&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="937" priority="269">
-      <formula>AND(0&gt;I9,I9&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="936" priority="177">
-      <formula>I10&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="935" priority="178">
-      <formula>AND(20&lt;I10,I10&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="934" priority="179">
-      <formula>AND(0&lt;I10,I10&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="933" priority="183">
-      <formula>I11&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="932" priority="184">
-      <formula>AND(20&lt;I11,I11&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="931" priority="185">
-      <formula>AND(0&lt;I11,I11&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="930" priority="189">
-      <formula>I12&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="929" priority="190">
-      <formula>AND(20&lt;I12,I12&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="928" priority="191">
-      <formula>AND(0&lt;I12,I12&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="927" priority="195">
-      <formula>I13&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="926" priority="196">
-      <formula>AND(20&lt;I13,I13&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="925" priority="197">
-      <formula>AND(0&lt;I13,I13&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="924" priority="201">
-      <formula>I14&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="923" priority="202">
-      <formula>AND(20&lt;I14,I14&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="922" priority="203">
-      <formula>AND(0&lt;I14,I14&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="921" priority="207">
-      <formula>I15&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="920" priority="208">
-      <formula>AND(20&lt;I15,I15&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="919" priority="209">
-      <formula>AND(0&lt;I15,I15&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="918" priority="213">
-      <formula>I16&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="917" priority="214">
-      <formula>AND(20&lt;I16,I16&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="916" priority="215">
-      <formula>AND(0&lt;I16,I16&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="915" priority="219">
-      <formula>I17&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="914" priority="220">
-      <formula>AND(20&lt;I17,I17&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="913" priority="221">
-      <formula>AND(0&lt;I17,I17&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="912" priority="225">
-      <formula>I18&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="911" priority="226">
-      <formula>AND(20&lt;I18,I18&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="910" priority="227">
-      <formula>AND(0&lt;I18,I18&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="909" priority="461">
-      <formula>I23&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="908" priority="462">
-      <formula>AND(20&lt;I23,I23&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="907" priority="463">
-      <formula>AND(0&lt;I23,I23&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="906" priority="467">
-      <formula>I24&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="905" priority="468">
-      <formula>AND(20&lt;I24,I24&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="904" priority="469">
-      <formula>AND(0&lt;I24,I24&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="903" priority="473">
-      <formula>I25&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="902" priority="474">
-      <formula>AND(20&lt;I25,I25&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="901" priority="475">
-      <formula>AND(0&lt;I25,I25&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="900" priority="479">
-      <formula>I26&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="899" priority="480">
-      <formula>AND(20&lt;I26,I26&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="898" priority="481">
-      <formula>AND(0&lt;I26,I26&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="897" priority="485">
-      <formula>I27&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="896" priority="486">
-      <formula>AND(20&lt;I27,I27&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="895" priority="487">
-      <formula>AND(0&lt;I27,I27&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="894" priority="491">
-      <formula>I28&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="893" priority="492">
-      <formula>AND(20&lt;I28,I28&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="892" priority="493">
-      <formula>AND(0&lt;I28,I28&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="891" priority="497">
-      <formula>I29&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="890" priority="498">
-      <formula>AND(20&lt;I29,I29&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="889" priority="499">
-      <formula>AND(0&lt;I29,I29&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="888" priority="135">
-      <formula>I3&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="887" priority="136">
-      <formula>AND(20&lt;I3,I3&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="886" priority="137">
-      <formula>AND(0&lt;I3,I3&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="885" priority="503">
-      <formula>I30&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="884" priority="504">
-      <formula>AND(20&lt;I30,I30&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="883" priority="505">
-      <formula>AND(0&lt;I30,I30&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="882" priority="509">
-      <formula>I31&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="881" priority="510">
-      <formula>AND(20&lt;I31,I31&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="880" priority="511">
-      <formula>AND(0&lt;I31,I31&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="879" priority="515">
-      <formula>I32&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="878" priority="516">
-      <formula>AND(20&lt;I32,I32&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="877" priority="517">
-      <formula>AND(0&lt;I32,I32&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="876" priority="521">
-      <formula>I33&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="875" priority="522">
-      <formula>AND(20&lt;I33,I33&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="874" priority="523">
-      <formula>AND(0&lt;I33,I33&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="873" priority="527">
-      <formula>I34&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="872" priority="528">
-      <formula>AND(20&lt;I34,I34&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="871" priority="529">
-      <formula>AND(0&lt;I34,I34&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="870" priority="533">
-      <formula>I35&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="869" priority="534">
-      <formula>AND(20&lt;I35,I35&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="868" priority="535">
-      <formula>AND(0&lt;I35,I35&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="867" priority="539">
-      <formula>I36&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="866" priority="540">
-      <formula>AND(20&lt;I36,I36&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="865" priority="541">
-      <formula>AND(0&lt;I36,I36&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="864" priority="545">
-      <formula>I37&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="863" priority="546">
-      <formula>AND(20&lt;I37,I37&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="862" priority="547">
-      <formula>AND(0&lt;I37,I37&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="861" priority="551">
-      <formula>I38&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="860" priority="552">
-      <formula>AND(20&lt;I38,I38&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="859" priority="553">
-      <formula>AND(0&lt;I38,I38&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="858" priority="141">
-      <formula>I4&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="857" priority="142">
-      <formula>AND(20&lt;I4,I4&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="856" priority="143">
-      <formula>AND(0&lt;I4,I4&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="855" priority="147">
-      <formula>I5&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="854" priority="148">
-      <formula>AND(20&lt;I5,I5&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="853" priority="149">
-      <formula>AND(0&lt;I5,I5&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="852" priority="153">
-      <formula>I6&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="851" priority="154">
-      <formula>AND(20&lt;I6,I6&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="850" priority="155">
-      <formula>AND(0&lt;I6,I6&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="849" priority="159">
-      <formula>I7&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="848" priority="160">
-      <formula>AND(20&lt;I7,I7&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="847" priority="161">
-      <formula>AND(0&lt;I7,I7&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="846" priority="165">
-      <formula>I8&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="845" priority="166">
-      <formula>AND(20&lt;I8,I8&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="844" priority="167">
-      <formula>AND(0&lt;I8,I8&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="843" priority="171">
-      <formula>I9&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="842" priority="172">
-      <formula>AND(20&lt;I9,I9&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="841" priority="173">
-      <formula>AND(0&lt;I9,I9&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I23:I38">
-    <cfRule type="dataBar" priority="650">
+    <cfRule type="dataBar" priority="674">
       <dataBar>
         <cfvo type="num" val="-100%"/>
         <cfvo type="num" val="100%"/>
@@ -13330,7 +11276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I18">
-    <cfRule type="dataBar" priority="324">
+    <cfRule type="dataBar" priority="348">
       <dataBar>
         <cfvo type="num" val="-100%"/>
         <cfvo type="num" val="100%"/>
@@ -13341,6 +11287,94 @@
           <x14:id>{DA7ABA51-AAAA-BBBB-0001-000000000004}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G18">
+    <cfRule type="expression" dxfId="864" priority="19">
+      <formula>I3&lt;=-50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="863" priority="20">
+      <formula>AND(-20%&gt;I3,I3&gt;-50%)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="862" priority="21">
+      <formula>AND(0%&gt;I3,I3&gt;=-20%)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G18">
+    <cfRule type="expression" dxfId="861" priority="22">
+      <formula>I3&lt;-50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="860" priority="23">
+      <formula>AND(-20&gt;I3,I3&gt;-50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="859" priority="24">
+      <formula>AND(0&gt;I3,I3&gt;-20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H18">
+    <cfRule type="expression" dxfId="858" priority="13">
+      <formula>I3&gt;=50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="857" priority="14">
+      <formula>AND(20%&lt;I3,I3&lt;50%)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="856" priority="15">
+      <formula>AND(0%&lt;I3,I3&lt;=20%)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H18">
+    <cfRule type="expression" dxfId="855" priority="16">
+      <formula>I3&gt;50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="854" priority="17">
+      <formula>AND(20&lt;I3,I3&lt;50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="853" priority="18">
+      <formula>AND(0&lt;I3,I3&lt;20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G38">
+    <cfRule type="expression" dxfId="852" priority="7">
+      <formula>I23&lt;=-50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="851" priority="8">
+      <formula>AND(-20%&gt;I23,I23&gt;-50%)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="850" priority="9">
+      <formula>AND(0%&gt;I23,I23&gt;=-20%)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G38">
+    <cfRule type="expression" dxfId="849" priority="10">
+      <formula>I23&lt;-50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="848" priority="11">
+      <formula>AND(-20&gt;I23,I23&gt;-50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="847" priority="12">
+      <formula>AND(0&gt;I23,I23&gt;-20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:H38">
+    <cfRule type="expression" dxfId="846" priority="1">
+      <formula>I23&gt;=50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="845" priority="2">
+      <formula>AND(20%&lt;=I23,I23&lt;50%)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="844" priority="3">
+      <formula>AND(0%&lt;I23,I23&lt;20%)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:H38">
+    <cfRule type="expression" dxfId="843" priority="4">
+      <formula>I23&gt;50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="842" priority="5">
+      <formula>AND(20&lt;=I23,I23&lt;50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="841" priority="6">
+      <formula>AND(0&lt;I23,I23&lt;20)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16199,7 +14233,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:I1048576"/>
+      <selection activeCell="G16" sqref="G16:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16243,10 +14277,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>12</v>
@@ -16546,10 +14580,10 @@
         <v>13</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>12</v>
@@ -16793,505 +14827,505 @@
     <mergeCell ref="A14:I14"/>
   </mergeCells>
   <conditionalFormatting sqref="A16:B23">
-    <cfRule type="cellIs" dxfId="386" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="235" operator="equal">
       <formula>"ERROR/TIMEOUT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="236" operator="equal">
       <formula>"unsat"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="237" operator="equal">
       <formula>"sat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B11">
-    <cfRule type="cellIs" dxfId="383" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="49" operator="equal">
       <formula>"ERROR/TIMEOUT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="50" operator="equal">
       <formula>"unsat"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="51" operator="equal">
       <formula>"sat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="380" priority="68">
+    <cfRule type="expression" dxfId="380" priority="116">
       <formula>F10&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="69">
+    <cfRule type="expression" dxfId="379" priority="117">
       <formula>AND(-3&lt;F10,F10&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="70">
+    <cfRule type="expression" dxfId="378" priority="118">
       <formula>AND(-2&lt;F10,F10&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="71">
+    <cfRule type="expression" dxfId="377" priority="119">
       <formula>AND(-1.5&lt;F10,F10&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="376" priority="72">
+    <cfRule type="expression" dxfId="376" priority="120">
       <formula>F11&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="73">
+    <cfRule type="expression" dxfId="375" priority="121">
       <formula>AND(-3&lt;F11,F11&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="74">
+    <cfRule type="expression" dxfId="374" priority="122">
       <formula>AND(-2&lt;F11,F11&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="75">
+    <cfRule type="expression" dxfId="373" priority="123">
       <formula>AND(-1.5&lt;F11,F11&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="372" priority="222">
+    <cfRule type="expression" dxfId="372" priority="270">
       <formula>F16&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="223">
+    <cfRule type="expression" dxfId="371" priority="271">
       <formula>AND(-3&lt;F16,F16&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="224">
+    <cfRule type="expression" dxfId="370" priority="272">
       <formula>AND(-2&lt;F16,F16&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="225">
+    <cfRule type="expression" dxfId="369" priority="273">
       <formula>AND(-1.5&lt;F16,F16&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="368" priority="226">
+    <cfRule type="expression" dxfId="368" priority="274">
       <formula>F17&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="227">
+    <cfRule type="expression" dxfId="367" priority="275">
       <formula>AND(-3&lt;F17,F17&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="228">
+    <cfRule type="expression" dxfId="366" priority="276">
       <formula>AND(-2&lt;F17,F17&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="229">
+    <cfRule type="expression" dxfId="365" priority="277">
       <formula>AND(-1.5&lt;F17,F17&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="364" priority="230">
+    <cfRule type="expression" dxfId="364" priority="278">
       <formula>F18&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="231">
+    <cfRule type="expression" dxfId="363" priority="279">
       <formula>AND(-3&lt;F18,F18&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="232">
+    <cfRule type="expression" dxfId="362" priority="280">
       <formula>AND(-2&lt;F18,F18&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="233">
+    <cfRule type="expression" dxfId="361" priority="281">
       <formula>AND(-1.5&lt;F18,F18&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="360" priority="234">
+    <cfRule type="expression" dxfId="360" priority="282">
       <formula>F19&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="235">
+    <cfRule type="expression" dxfId="359" priority="283">
       <formula>AND(-3&lt;F19,F19&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="236">
+    <cfRule type="expression" dxfId="358" priority="284">
       <formula>AND(-2&lt;F19,F19&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="237">
+    <cfRule type="expression" dxfId="357" priority="285">
       <formula>AND(-1.5&lt;F19,F19&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="356" priority="238">
+    <cfRule type="expression" dxfId="356" priority="286">
       <formula>F20&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="239">
+    <cfRule type="expression" dxfId="355" priority="287">
       <formula>AND(-3&lt;F20,F20&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="240">
+    <cfRule type="expression" dxfId="354" priority="288">
       <formula>AND(-2&lt;F20,F20&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="241">
+    <cfRule type="expression" dxfId="353" priority="289">
       <formula>AND(-1.5&lt;F20,F20&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="352" priority="242">
+    <cfRule type="expression" dxfId="352" priority="290">
       <formula>F21&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="243">
+    <cfRule type="expression" dxfId="351" priority="291">
       <formula>AND(-3&lt;F21,F21&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="244">
+    <cfRule type="expression" dxfId="350" priority="292">
       <formula>AND(-2&lt;F21,F21&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="245">
+    <cfRule type="expression" dxfId="349" priority="293">
       <formula>AND(-1.5&lt;F21,F21&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="348" priority="246">
+    <cfRule type="expression" dxfId="348" priority="294">
       <formula>F22&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="247">
+    <cfRule type="expression" dxfId="347" priority="295">
       <formula>AND(-3&lt;F22,F22&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="248">
+    <cfRule type="expression" dxfId="346" priority="296">
       <formula>AND(-2&lt;F22,F22&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="249">
+    <cfRule type="expression" dxfId="345" priority="297">
       <formula>AND(-1.5&lt;F22,F22&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="344" priority="250">
+    <cfRule type="expression" dxfId="344" priority="298">
       <formula>F23&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="251">
+    <cfRule type="expression" dxfId="343" priority="299">
       <formula>AND(-3&lt;F23,F23&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="252">
+    <cfRule type="expression" dxfId="342" priority="300">
       <formula>AND(-2&lt;F23,F23&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="253">
+    <cfRule type="expression" dxfId="341" priority="301">
       <formula>AND(-1.5&lt;F23,F23&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="340" priority="40">
+    <cfRule type="expression" dxfId="340" priority="88">
       <formula>F3&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="41">
+    <cfRule type="expression" dxfId="339" priority="89">
       <formula>AND(-3&lt;F3,F3&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="42">
+    <cfRule type="expression" dxfId="338" priority="90">
       <formula>AND(-2&lt;F3,F3&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="43">
+    <cfRule type="expression" dxfId="337" priority="91">
       <formula>AND(-1.5&lt;F3,F3&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="336" priority="44">
+    <cfRule type="expression" dxfId="336" priority="92">
       <formula>F4&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="45">
+    <cfRule type="expression" dxfId="335" priority="93">
       <formula>AND(-3&lt;F4,F4&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="46">
+    <cfRule type="expression" dxfId="334" priority="94">
       <formula>AND(-2&lt;F4,F4&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="47">
+    <cfRule type="expression" dxfId="333" priority="95">
       <formula>AND(-1.5&lt;F4,F4&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="332" priority="48">
+    <cfRule type="expression" dxfId="332" priority="96">
       <formula>F5&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="49">
+    <cfRule type="expression" dxfId="331" priority="97">
       <formula>AND(-3&lt;F5,F5&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="50">
+    <cfRule type="expression" dxfId="330" priority="98">
       <formula>AND(-2&lt;F5,F5&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="51">
+    <cfRule type="expression" dxfId="329" priority="99">
       <formula>AND(-1.5&lt;F5,F5&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="328" priority="52">
+    <cfRule type="expression" dxfId="328" priority="100">
       <formula>F6&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="53">
+    <cfRule type="expression" dxfId="327" priority="101">
       <formula>AND(-3&lt;F6,F6&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="54">
+    <cfRule type="expression" dxfId="326" priority="102">
       <formula>AND(-2&lt;F6,F6&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="55">
+    <cfRule type="expression" dxfId="325" priority="103">
       <formula>AND(-1.5&lt;F6,F6&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="324" priority="56">
+    <cfRule type="expression" dxfId="324" priority="104">
       <formula>F7&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="57">
+    <cfRule type="expression" dxfId="323" priority="105">
       <formula>AND(-3&lt;F7,F7&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="58">
+    <cfRule type="expression" dxfId="322" priority="106">
       <formula>AND(-2&lt;F7,F7&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="59">
+    <cfRule type="expression" dxfId="321" priority="107">
       <formula>AND(-1.5&lt;F7,F7&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="320" priority="60">
+    <cfRule type="expression" dxfId="320" priority="108">
       <formula>F8&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="61">
+    <cfRule type="expression" dxfId="319" priority="109">
       <formula>AND(-3&lt;F8,F8&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="62">
+    <cfRule type="expression" dxfId="318" priority="110">
       <formula>AND(-2&lt;F8,F8&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="63">
+    <cfRule type="expression" dxfId="317" priority="111">
       <formula>AND(-1.5&lt;F8,F8&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="316" priority="64">
+    <cfRule type="expression" dxfId="316" priority="112">
       <formula>F9&lt;-3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="65">
+    <cfRule type="expression" dxfId="315" priority="113">
       <formula>AND(-3&lt;F9,F9&lt;-2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="66">
+    <cfRule type="expression" dxfId="314" priority="114">
       <formula>AND(-2&lt;F9,F9&lt;-1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="67">
+    <cfRule type="expression" dxfId="313" priority="115">
       <formula>AND(-1.5&lt;F9,F9&lt;-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="312" priority="32">
+    <cfRule type="expression" dxfId="312" priority="80">
       <formula>F10&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="33">
+    <cfRule type="expression" dxfId="311" priority="81">
       <formula>AND(3&gt;F10, F10&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="34">
+    <cfRule type="expression" dxfId="310" priority="82">
       <formula>AND(2&gt;F10, F10&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="35">
+    <cfRule type="expression" dxfId="309" priority="83">
       <formula>AND(1.5&gt;F10, F10&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="308" priority="36">
+    <cfRule type="expression" dxfId="308" priority="84">
       <formula>F11&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="37">
+    <cfRule type="expression" dxfId="307" priority="85">
       <formula>AND(3&gt;F11, F11&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="38">
+    <cfRule type="expression" dxfId="306" priority="86">
       <formula>AND(2&gt;F11, F11&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="39">
+    <cfRule type="expression" dxfId="305" priority="87">
       <formula>AND(1.5&gt;F11, F11&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="304" priority="190">
+    <cfRule type="expression" dxfId="304" priority="238">
       <formula>F16&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="191">
+    <cfRule type="expression" dxfId="303" priority="239">
       <formula>AND(3&gt;F16, F16&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="192">
+    <cfRule type="expression" dxfId="302" priority="240">
       <formula>AND(2&gt;F16, F16&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="193">
+    <cfRule type="expression" dxfId="301" priority="241">
       <formula>AND(1.5&gt;F16, F16&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="300" priority="194">
+    <cfRule type="expression" dxfId="300" priority="242">
       <formula>F17&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="195">
+    <cfRule type="expression" dxfId="299" priority="243">
       <formula>AND(3&gt;F17, F17&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="196">
+    <cfRule type="expression" dxfId="298" priority="244">
       <formula>AND(2&gt;F17, F17&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="197">
+    <cfRule type="expression" dxfId="297" priority="245">
       <formula>AND(1.5&gt;F17, F17&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="296" priority="198">
+    <cfRule type="expression" dxfId="296" priority="246">
       <formula>F18&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="199">
+    <cfRule type="expression" dxfId="295" priority="247">
       <formula>AND(3&gt;F18, F18&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="200">
+    <cfRule type="expression" dxfId="294" priority="248">
       <formula>AND(2&gt;F18, F18&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="201">
+    <cfRule type="expression" dxfId="293" priority="249">
       <formula>AND(1.5&gt;F18, F18&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="292" priority="202">
+    <cfRule type="expression" dxfId="292" priority="250">
       <formula>F19&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="203">
+    <cfRule type="expression" dxfId="291" priority="251">
       <formula>AND(3&gt;F19, F19&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="204">
+    <cfRule type="expression" dxfId="290" priority="252">
       <formula>AND(2&gt;F19, F19&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="205">
+    <cfRule type="expression" dxfId="289" priority="253">
       <formula>AND(1.5&gt;F19, F19&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="288" priority="206">
+    <cfRule type="expression" dxfId="288" priority="254">
       <formula>F20&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="207">
+    <cfRule type="expression" dxfId="287" priority="255">
       <formula>AND(3&gt;F20, F20&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="208">
+    <cfRule type="expression" dxfId="286" priority="256">
       <formula>AND(2&gt;F20, F20&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="209">
+    <cfRule type="expression" dxfId="285" priority="257">
       <formula>AND(1.5&gt;F20, F20&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="284" priority="210">
+    <cfRule type="expression" dxfId="284" priority="258">
       <formula>F21&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="211">
+    <cfRule type="expression" dxfId="283" priority="259">
       <formula>AND(3&gt;F21, F21&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="212">
+    <cfRule type="expression" dxfId="282" priority="260">
       <formula>AND(2&gt;F21, F21&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="213">
+    <cfRule type="expression" dxfId="281" priority="261">
       <formula>AND(1.5&gt;F21, F21&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="280" priority="214">
+    <cfRule type="expression" dxfId="280" priority="262">
       <formula>F22&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="215">
+    <cfRule type="expression" dxfId="279" priority="263">
       <formula>AND(3&gt;F22, F22&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="216">
+    <cfRule type="expression" dxfId="278" priority="264">
       <formula>AND(2&gt;F22, F22&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="217">
+    <cfRule type="expression" dxfId="277" priority="265">
       <formula>AND(1.5&gt;F22, F22&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="276" priority="218">
+    <cfRule type="expression" dxfId="276" priority="266">
       <formula>F23&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="219">
+    <cfRule type="expression" dxfId="275" priority="267">
       <formula>AND(3&gt;F23, F23&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="220">
+    <cfRule type="expression" dxfId="274" priority="268">
       <formula>AND(2&gt;F23, F23&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="221">
+    <cfRule type="expression" dxfId="273" priority="269">
       <formula>AND(1.5&gt;F23, F23&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="272" priority="4">
+    <cfRule type="expression" dxfId="272" priority="52">
       <formula>F3&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="5">
+    <cfRule type="expression" dxfId="271" priority="53">
       <formula>AND(3&gt;F3, F3&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="6">
+    <cfRule type="expression" dxfId="270" priority="54">
       <formula>AND(2&gt;F3, F3&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="7">
+    <cfRule type="expression" dxfId="269" priority="55">
       <formula>AND(1.5&gt;F3, F3&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="268" priority="8">
+    <cfRule type="expression" dxfId="268" priority="56">
       <formula>F4&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="9">
+    <cfRule type="expression" dxfId="267" priority="57">
       <formula>AND(3&gt;F4, F4&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="10">
+    <cfRule type="expression" dxfId="266" priority="58">
       <formula>AND(2&gt;F4, F4&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="11">
+    <cfRule type="expression" dxfId="265" priority="59">
       <formula>AND(1.5&gt;F4, F4&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="264" priority="12">
+    <cfRule type="expression" dxfId="264" priority="60">
       <formula>F5&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="13">
+    <cfRule type="expression" dxfId="263" priority="61">
       <formula>AND(3&gt;F5, F5&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="14">
+    <cfRule type="expression" dxfId="262" priority="62">
       <formula>AND(2&gt;F5, F5&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="15">
+    <cfRule type="expression" dxfId="261" priority="63">
       <formula>AND(1.5&gt;F5, F5&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="260" priority="16">
+    <cfRule type="expression" dxfId="260" priority="64">
       <formula>F6&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="17">
+    <cfRule type="expression" dxfId="259" priority="65">
       <formula>AND(3&gt;F6, F6&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="18">
+    <cfRule type="expression" dxfId="258" priority="66">
       <formula>AND(2&gt;F6, F6&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="19">
+    <cfRule type="expression" dxfId="257" priority="67">
       <formula>AND(1.5&gt;F6, F6&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="256" priority="20">
+    <cfRule type="expression" dxfId="256" priority="68">
       <formula>F7&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="21">
+    <cfRule type="expression" dxfId="255" priority="69">
       <formula>AND(3&gt;F7, F7&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="22">
+    <cfRule type="expression" dxfId="254" priority="70">
       <formula>AND(2&gt;F7, F7&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="23">
+    <cfRule type="expression" dxfId="253" priority="71">
       <formula>AND(1.5&gt;F7, F7&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="252" priority="24">
+    <cfRule type="expression" dxfId="252" priority="72">
       <formula>F8&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="25">
+    <cfRule type="expression" dxfId="251" priority="73">
       <formula>AND(3&gt;F8, F8&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="26">
+    <cfRule type="expression" dxfId="250" priority="74">
       <formula>AND(2&gt;F8, F8&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="27">
+    <cfRule type="expression" dxfId="249" priority="75">
       <formula>AND(1.5&gt;F8, F8&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="248" priority="28">
+    <cfRule type="expression" dxfId="248" priority="76">
       <formula>F9&gt;3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="29">
+    <cfRule type="expression" dxfId="247" priority="77">
       <formula>AND(3&gt;F9, F9&gt;2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="30">
+    <cfRule type="expression" dxfId="246" priority="78">
       <formula>AND(2&gt;F9, F9&gt;1.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="31">
+    <cfRule type="expression" dxfId="245" priority="79">
       <formula>AND(1.5&gt;F9, F9&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F23">
-    <cfRule type="dataBar" priority="352">
+    <cfRule type="dataBar" priority="400">
       <dataBar>
         <cfvo type="num" val="-5"/>
         <cfvo type="num" val="5"/>
@@ -17305,7 +15339,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F11">
-    <cfRule type="dataBar" priority="186">
+    <cfRule type="dataBar" priority="234">
       <dataBar>
         <cfvo type="num" val="-5"/>
         <cfvo type="num" val="5"/>
@@ -17319,381 +15353,205 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="244" priority="172">
+    <cfRule type="expression" dxfId="244" priority="220">
       <formula>I10&lt;-50%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="173">
+    <cfRule type="expression" dxfId="243" priority="221">
       <formula>AND(-20&gt;I10,I10&gt;-50)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="174">
+    <cfRule type="expression" dxfId="242" priority="222">
       <formula>AND(0&gt;I10,I10&gt;-20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="241" priority="178">
+    <cfRule type="expression" dxfId="241" priority="226">
       <formula>I11&lt;-50%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="179">
+    <cfRule type="expression" dxfId="240" priority="227">
       <formula>AND(-20&gt;I11,I11&gt;-50)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="180">
+    <cfRule type="expression" dxfId="239" priority="228">
       <formula>AND(0&gt;I11,I11&gt;-20)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="238" priority="302">
-      <formula>I16&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="237" priority="303">
-      <formula>AND(-20&gt;I16,I16&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="236" priority="304">
-      <formula>AND(0&gt;I16,I16&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="235" priority="308">
-      <formula>I17&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="309">
-      <formula>AND(-20&gt;I17,I17&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="233" priority="310">
-      <formula>AND(0&gt;I17,I17&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="232" priority="314">
-      <formula>I18&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="231" priority="315">
-      <formula>AND(-20&gt;I18,I18&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="316">
-      <formula>AND(0&gt;I18,I18&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="229" priority="320">
-      <formula>I19&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="321">
-      <formula>AND(-20&gt;I19,I19&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="227" priority="322">
-      <formula>AND(0&gt;I19,I19&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="226" priority="326">
-      <formula>I20&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="225" priority="327">
-      <formula>AND(-20&gt;I20,I20&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="328">
-      <formula>AND(0&gt;I20,I20&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="223" priority="332">
-      <formula>I21&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="333">
-      <formula>AND(-20&gt;I21,I21&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="221" priority="334">
-      <formula>AND(0&gt;I21,I21&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="220" priority="338">
-      <formula>I22&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="219" priority="339">
-      <formula>AND(-20&gt;I22,I22&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="340">
-      <formula>AND(0&gt;I22,I22&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="217" priority="344">
-      <formula>I23&lt;-50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="345">
-      <formula>AND(-20&gt;I23,I23&gt;-50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="215" priority="346">
-      <formula>AND(0&gt;I23,I23&gt;-20)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="214" priority="130">
+    <cfRule type="expression" dxfId="238" priority="178">
       <formula>I3&lt;-50%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="131">
+    <cfRule type="expression" dxfId="237" priority="179">
       <formula>AND(-20&gt;I3,I3&gt;-50)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="132">
+    <cfRule type="expression" dxfId="236" priority="180">
       <formula>AND(0&gt;I3,I3&gt;-20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="211" priority="136">
+    <cfRule type="expression" dxfId="235" priority="184">
       <formula>I4&lt;-50%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="137">
+    <cfRule type="expression" dxfId="234" priority="185">
       <formula>AND(-20&gt;I4,I4&gt;-50)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="138">
+    <cfRule type="expression" dxfId="233" priority="186">
       <formula>AND(0&gt;I4,I4&gt;-20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="208" priority="142">
+    <cfRule type="expression" dxfId="232" priority="190">
       <formula>I5&lt;-50%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="143">
+    <cfRule type="expression" dxfId="231" priority="191">
       <formula>AND(-20&gt;I5,I5&gt;-50)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="144">
+    <cfRule type="expression" dxfId="230" priority="192">
       <formula>AND(0&gt;I5,I5&gt;-20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="205" priority="148">
+    <cfRule type="expression" dxfId="229" priority="196">
       <formula>I6&lt;-50%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="149">
+    <cfRule type="expression" dxfId="228" priority="197">
       <formula>AND(-20&gt;I6,I6&gt;-50)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="150">
+    <cfRule type="expression" dxfId="227" priority="198">
       <formula>AND(0&gt;I6,I6&gt;-20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="202" priority="154">
+    <cfRule type="expression" dxfId="226" priority="202">
       <formula>I7&lt;-50%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="155">
+    <cfRule type="expression" dxfId="225" priority="203">
       <formula>AND(-20&gt;I7,I7&gt;-50)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="156">
+    <cfRule type="expression" dxfId="224" priority="204">
       <formula>AND(0&gt;I7,I7&gt;-20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="199" priority="160">
+    <cfRule type="expression" dxfId="223" priority="208">
       <formula>I8&lt;-50%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="161">
+    <cfRule type="expression" dxfId="222" priority="209">
       <formula>AND(-20&gt;I8,I8&gt;-50)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="162">
+    <cfRule type="expression" dxfId="221" priority="210">
       <formula>AND(0&gt;I8,I8&gt;-20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="196" priority="166">
+    <cfRule type="expression" dxfId="220" priority="214">
       <formula>I9&lt;-50%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="167">
+    <cfRule type="expression" dxfId="219" priority="215">
       <formula>AND(-20&gt;I9,I9&gt;-50)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="168">
+    <cfRule type="expression" dxfId="218" priority="216">
       <formula>AND(0&gt;I9,I9&gt;-20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="193" priority="118">
+    <cfRule type="expression" dxfId="217" priority="166">
       <formula>I10&gt;50%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="119">
+    <cfRule type="expression" dxfId="216" priority="167">
       <formula>AND(20&lt;I10,I10&lt;50)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="120">
+    <cfRule type="expression" dxfId="215" priority="168">
       <formula>AND(0&lt;I10,I10&lt;20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="190" priority="124">
+    <cfRule type="expression" dxfId="214" priority="172">
       <formula>I11&gt;50%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="125">
+    <cfRule type="expression" dxfId="213" priority="173">
       <formula>AND(20&lt;I11,I11&lt;50)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="126">
+    <cfRule type="expression" dxfId="212" priority="174">
       <formula>AND(0&lt;I11,I11&lt;20)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="187" priority="254">
-      <formula>I16&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="255">
-      <formula>AND(20&lt;I16,I16&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="185" priority="256">
-      <formula>AND(0&lt;I16,I16&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="184" priority="260">
-      <formula>I17&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="183" priority="261">
-      <formula>AND(20&lt;I17,I17&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="262">
-      <formula>AND(0&lt;I17,I17&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="181" priority="266">
-      <formula>I18&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="267">
-      <formula>AND(20&lt;I18,I18&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="179" priority="268">
-      <formula>AND(0&lt;I18,I18&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="178" priority="272">
-      <formula>I19&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="273">
-      <formula>AND(20&lt;I19,I19&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="274">
-      <formula>AND(0&lt;I19,I19&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="175" priority="278">
-      <formula>I20&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="279">
-      <formula>AND(20&lt;I20,I20&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="173" priority="280">
-      <formula>AND(0&lt;I20,I20&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="172" priority="284">
-      <formula>I21&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="171" priority="285">
-      <formula>AND(20&lt;I21,I21&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="286">
-      <formula>AND(0&lt;I21,I21&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="169" priority="290">
-      <formula>I22&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="291">
-      <formula>AND(20&lt;I22,I22&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="167" priority="292">
-      <formula>AND(0&lt;I22,I22&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="166" priority="296">
-      <formula>I23&gt;50%</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="165" priority="297">
-      <formula>AND(20&lt;I23,I23&lt;50)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="298">
-      <formula>AND(0&lt;I23,I23&lt;20)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="163" priority="76">
+    <cfRule type="expression" dxfId="211" priority="124">
       <formula>I3&gt;50%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="77">
+    <cfRule type="expression" dxfId="210" priority="125">
       <formula>AND(20&lt;I3,I3&lt;50)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="78">
+    <cfRule type="expression" dxfId="209" priority="126">
       <formula>AND(0&lt;I3,I3&lt;20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="160" priority="82">
+    <cfRule type="expression" dxfId="208" priority="130">
       <formula>I4&gt;50%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="83">
+    <cfRule type="expression" dxfId="207" priority="131">
       <formula>AND(20&lt;I4,I4&lt;50)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="84">
+    <cfRule type="expression" dxfId="206" priority="132">
       <formula>AND(0&lt;I4,I4&lt;20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="157" priority="88">
+    <cfRule type="expression" dxfId="205" priority="136">
       <formula>I5&gt;50%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="89">
+    <cfRule type="expression" dxfId="204" priority="137">
       <formula>AND(20&lt;I5,I5&lt;50)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="90">
+    <cfRule type="expression" dxfId="203" priority="138">
       <formula>AND(0&lt;I5,I5&lt;20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="154" priority="94">
+    <cfRule type="expression" dxfId="202" priority="142">
       <formula>I6&gt;50%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="95">
+    <cfRule type="expression" dxfId="201" priority="143">
       <formula>AND(20&lt;I6,I6&lt;50)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="96">
+    <cfRule type="expression" dxfId="200" priority="144">
       <formula>AND(0&lt;I6,I6&lt;20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="151" priority="100">
+    <cfRule type="expression" dxfId="199" priority="148">
       <formula>I7&gt;50%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="101">
+    <cfRule type="expression" dxfId="198" priority="149">
       <formula>AND(20&lt;I7,I7&lt;50)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="102">
+    <cfRule type="expression" dxfId="197" priority="150">
       <formula>AND(0&lt;I7,I7&lt;20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="148" priority="106">
+    <cfRule type="expression" dxfId="196" priority="154">
       <formula>I8&gt;50%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="107">
+    <cfRule type="expression" dxfId="195" priority="155">
       <formula>AND(20&lt;I8,I8&lt;50)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="108">
+    <cfRule type="expression" dxfId="194" priority="156">
       <formula>AND(0&lt;I8,I8&lt;20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="145" priority="112">
+    <cfRule type="expression" dxfId="193" priority="160">
       <formula>I9&gt;50%</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="113">
+    <cfRule type="expression" dxfId="192" priority="161">
       <formula>AND(20&lt;I9,I9&lt;50)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="114">
+    <cfRule type="expression" dxfId="191" priority="162">
       <formula>AND(0&lt;I9,I9&lt;20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I23">
-    <cfRule type="dataBar" priority="351">
+    <cfRule type="dataBar" priority="399">
       <dataBar>
         <cfvo type="num" val="-100%"/>
         <cfvo type="num" val="100%"/>
@@ -17707,7 +15565,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I11">
-    <cfRule type="dataBar" priority="185">
+    <cfRule type="dataBar" priority="233">
       <dataBar>
         <cfvo type="num" val="-100%"/>
         <cfvo type="num" val="100%"/>
@@ -17718,6 +15576,182 @@
           <x14:id>{DA7ABA51-AAAA-BBBB-0003-000000000006}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="190" priority="46">
+      <formula>I23&lt;-50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="47">
+      <formula>AND(-20&gt;I23,I23&gt;-50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="48">
+      <formula>AND(0&gt;I23,I23&gt;-20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="expression" dxfId="187" priority="25">
+      <formula>I16&lt;-50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="26">
+      <formula>AND(-20&gt;I16,I16&gt;-50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="27">
+      <formula>AND(0&gt;I16,I16&gt;-20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="expression" dxfId="184" priority="28">
+      <formula>I17&lt;-50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="183" priority="29">
+      <formula>AND(-20&gt;I17,I17&gt;-50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="30">
+      <formula>AND(0&gt;I17,I17&gt;-20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" dxfId="181" priority="31">
+      <formula>I18&lt;-50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="32">
+      <formula>AND(-20&gt;I18,I18&gt;-50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="179" priority="33">
+      <formula>AND(0&gt;I18,I18&gt;-20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="178" priority="34">
+      <formula>I19&lt;-50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="35">
+      <formula>AND(-20&gt;I19,I19&gt;-50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="36">
+      <formula>AND(0&gt;I19,I19&gt;-20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="175" priority="37">
+      <formula>I20&lt;-50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="38">
+      <formula>AND(-20&gt;I20,I20&gt;-50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="39">
+      <formula>AND(0&gt;I20,I20&gt;-20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="expression" dxfId="172" priority="40">
+      <formula>I21&lt;-50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="41">
+      <formula>AND(-20&gt;I21,I21&gt;-50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="42">
+      <formula>AND(0&gt;I21,I21&gt;-20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="expression" dxfId="169" priority="43">
+      <formula>I22&lt;-50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="44">
+      <formula>AND(-20&gt;I22,I22&gt;-50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="167" priority="45">
+      <formula>AND(0&gt;I22,I22&gt;-20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="expression" dxfId="166" priority="22">
+      <formula>I23&gt;50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="23">
+      <formula>AND(20&lt;I23,I23&lt;50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="24">
+      <formula>AND(0&lt;I23,I23&lt;20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="expression" dxfId="163" priority="1">
+      <formula>I16&gt;50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="2">
+      <formula>AND(20&lt;I16,I16&lt;50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="3">
+      <formula>AND(0&lt;I16,I16&lt;20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="expression" dxfId="160" priority="4">
+      <formula>I17&gt;50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="5">
+      <formula>AND(20&lt;I17,I17&lt;50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="6">
+      <formula>AND(0&lt;I17,I17&lt;20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="expression" dxfId="157" priority="7">
+      <formula>I18&gt;50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="8">
+      <formula>AND(20&lt;I18,I18&lt;50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="9">
+      <formula>AND(0&lt;I18,I18&lt;20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="expression" dxfId="154" priority="10">
+      <formula>I19&gt;50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="11">
+      <formula>AND(20&lt;I19,I19&lt;50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="12">
+      <formula>AND(0&lt;I19,I19&lt;20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="expression" dxfId="151" priority="13">
+      <formula>I20&gt;50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="14">
+      <formula>AND(20&lt;I20,I20&lt;50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="15">
+      <formula>AND(0&lt;I20,I20&lt;20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="expression" dxfId="148" priority="16">
+      <formula>I21&gt;50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="17">
+      <formula>AND(20&lt;I21,I21&lt;50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="18">
+      <formula>AND(0&lt;I21,I21&lt;20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="expression" dxfId="145" priority="19">
+      <formula>I22&gt;50%</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="20">
+      <formula>AND(20&lt;I22,I22&lt;50)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="21">
+      <formula>AND(0&lt;I22,I22&lt;20)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17794,7 +15828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -17839,10 +15873,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>12</v>
@@ -17939,10 +15973,10 @@
         <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>12</v>
